--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harish/PycharmProjects/Data_Automation_project/Config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\Data_Automation_project\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24D5B15-8746-C04E-93FD-86A2E8E09DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22F0678-BB4D-42BC-B512-146B0D432B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="57">
   <si>
     <t>records_present_only_in_source</t>
   </si>
@@ -188,13 +188,16 @@
   </si>
   <si>
     <t>CIDD_3</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -546,31 +549,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="58.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="69.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.83203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="49.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.81640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="69.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="23.81640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="49.1796875" style="2" customWidth="1"/>
     <col min="12" max="12" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="2"/>
+    <col min="16" max="16" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -620,7 +623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -667,7 +670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
@@ -714,7 +717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -761,7 +764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
@@ -809,7 +812,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
@@ -856,7 +859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
@@ -903,7 +906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
@@ -950,7 +953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1091,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1185,7 +1188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -1276,10 +1279,10 @@
         <v>24</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1323,10 +1326,10 @@
         <v>24</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -1370,7 +1373,7 @@
         <v>24</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\Data_Automation_project\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22F0678-BB4D-42BC-B512-146B0D432B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DD4896-CEC7-4B8D-AD4E-FF6F250CFC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="75">
   <si>
     <t>records_present_only_in_source</t>
   </si>
@@ -191,18 +191,79 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>SN1</t>
+  </si>
+  <si>
+    <t>count_validation</t>
+  </si>
+  <si>
+    <t>redshift</t>
+  </si>
+  <si>
+    <t>redshift_db</t>
+  </si>
+  <si>
+    <t>red_shift_dn_tabe1.sql</t>
+  </si>
+  <si>
+    <t>table1</t>
+  </si>
+  <si>
+    <t>snowflake</t>
+  </si>
+  <si>
+    <t>snowflake_db</t>
+  </si>
+  <si>
+    <t>snowflake_table1.sql</t>
+  </si>
+  <si>
+    <t>customer_id, customer_name</t>
+  </si>
+  <si>
+    <t>customer_id, customer_name,</t>
+  </si>
+  <si>
+    <t>duplicate</t>
+  </si>
+  <si>
+    <t>Null_value_check</t>
+  </si>
+  <si>
+    <t>SN2</t>
+  </si>
+  <si>
+    <t>SN3</t>
+  </si>
+  <si>
+    <t>end_date, start_date, active_flag,customer_id, customer_name</t>
+  </si>
+  <si>
+    <t>SN4</t>
+  </si>
+  <si>
+    <t>Uniqueness_check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -247,29 +308,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -547,29 +617,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="58.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.81640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="69.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="23.81640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="49.1796875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.6328125" style="2"/>
   </cols>
   <sheetData>
@@ -1376,9 +1449,185 @@
         <v>56</v>
       </c>
     </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="6"/>
+      <c r="P18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="7"/>
+      <c r="N19" s="6"/>
+      <c r="P19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="P20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c r="N21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="5">
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B18:B1048576" xr:uid="{703DDE81-D9C0-DC4D-BC27-344A03B57562}">
       <formula1>"count_validation,duplicate,Null_value_check,Uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>
     </dataValidation>
@@ -1388,11 +1637,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B10:B15 B17" xr:uid="{74169A69-E248-3047-9A8E-76611A2C8774}">
       <formula1>"duplicate_check, uniqueness_check, null_value_check, records_present_only_in_target,  records_present_only_in_source,  data_compare,name_std_check, postal_code_std_check  "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P17" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P21" xr:uid="{53648117-6315-BD4B-95C3-AF9A5887C458}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576 I1:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
-      <formula1>"csv,json,parquet,avro,table"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576" xr:uid="{39CDAD1A-527D-8A43-BFCC-4279C43AB355}">
+      <formula1>"csv,json,parquet,avro,table,snowflake,redshift,adls,s3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{0251E4F9-1266-42BB-802C-E032AD2F255C}">
+      <formula1>"csv,json,parquet,avro,table,redshift,snowflake,adls,s3"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\Data_Automation_project\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8DD4896-CEC7-4B8D-AD4E-FF6F250CFC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0C5FD8-3D12-45A5-921C-AA29C2F8768A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,9 +620,9 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -740,7 +740,7 @@
         <v>24</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -787,7 +787,7 @@
         <v>24</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -834,7 +834,7 @@
         <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -881,7 +881,7 @@
         <v>24</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
@@ -929,7 +929,7 @@
         <v>24</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -976,7 +976,7 @@
         <v>24</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1070,7 +1070,7 @@
         <v>24</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1117,7 +1117,7 @@
         <v>24</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1164,7 +1164,7 @@
         <v>24</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1211,7 +1211,7 @@
         <v>24</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1258,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1305,7 +1305,7 @@
         <v>24</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17">

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\Data_Automation_project\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0C5FD8-3D12-45A5-921C-AA29C2F8768A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EFEE47-1F6F-47A3-8623-B7AB40465C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -251,12 +251,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -308,38 +315,41 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -622,7 +632,7 @@
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -730,7 +740,7 @@
       <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="11" t="s">
         <v>35</v>
       </c>
       <c r="M2" s="7" t="s">
@@ -740,7 +750,7 @@
         <v>24</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -787,7 +797,7 @@
         <v>24</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -834,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -881,7 +891,7 @@
         <v>24</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
@@ -929,7 +939,7 @@
         <v>24</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -976,7 +986,7 @@
         <v>24</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1013,8 +1023,8 @@
       <c r="K8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>35</v>
+      <c r="L8" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>23</v>
@@ -1626,7 +1636,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B18:B1048576" xr:uid="{703DDE81-D9C0-DC4D-BC27-344A03B57562}">
       <formula1>"count_validation,duplicate,Null_value_check,Uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\Data_Automation_project\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EFEE47-1F6F-47A3-8623-B7AB40465C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F167F9-4369-4DB4-B450-3DFC46F900A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$21</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="76">
   <si>
     <t>records_present_only_in_source</t>
   </si>
@@ -196,9 +199,6 @@
     <t>SN1</t>
   </si>
   <si>
-    <t>count_validation</t>
-  </si>
-  <si>
     <t>redshift</t>
   </si>
   <si>
@@ -245,18 +245,31 @@
   </si>
   <si>
     <t>Uniqueness_check</t>
+  </si>
+  <si>
+    <t>NOT APPL</t>
+  </si>
+  <si>
+    <t>batch_date,create_date,update_date,create_user,update_user</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -315,42 +328,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,7 +654,7 @@
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -720,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>31</v>
@@ -735,10 +757,10 @@
         <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>35</v>
@@ -748,6 +770,9 @@
       </c>
       <c r="N2" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>5</v>
@@ -767,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>31</v>
@@ -782,10 +807,10 @@
         <v>3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>35</v>
@@ -795,6 +820,9 @@
       </c>
       <c r="N3" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>5</v>
@@ -814,7 +842,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>31</v>
@@ -829,10 +857,10 @@
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>35</v>
@@ -842,6 +870,9 @@
       </c>
       <c r="N4" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>5</v>
@@ -861,7 +892,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>31</v>
@@ -876,10 +907,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>35</v>
@@ -889,6 +920,9 @@
       </c>
       <c r="N5" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>5</v>
@@ -909,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>31</v>
@@ -924,10 +958,10 @@
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>35</v>
@@ -937,6 +971,9 @@
       </c>
       <c r="N6" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>5</v>
@@ -956,7 +993,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>31</v>
@@ -971,10 +1008,10 @@
         <v>3</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>35</v>
@@ -984,6 +1021,9 @@
       </c>
       <c r="N7" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>5</v>
@@ -1003,7 +1043,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>31</v>
@@ -1018,19 +1058,22 @@
         <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>74</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="M8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>24</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>5</v>
@@ -1050,10 +1093,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>29</v>
@@ -1079,8 +1122,11 @@
       <c r="N9" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="O9" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="P9" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1097,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>29</v>
@@ -1144,10 +1190,10 @@
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>29</v>
@@ -1191,10 +1237,10 @@
         <v>3</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>29</v>
@@ -1238,10 +1284,10 @@
         <v>3</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>29</v>
@@ -1285,10 +1331,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>20</v>
+        <v>74</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>29</v>
@@ -1463,81 +1509,88 @@
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>58</v>
+      <c r="B18" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="6"/>
+      <c r="L18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="P18" s="1" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="L19" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M19" s="7"/>
       <c r="N19" s="6"/>
@@ -1547,43 +1600,43 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="L20" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N20" s="6"/>
       <c r="P20" s="1" t="s">
@@ -1592,56 +1645,56 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="L21" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M21" s="10"/>
       <c r="N21" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B18:B1048576" xr:uid="{703DDE81-D9C0-DC4D-BC27-344A03B57562}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B19:B1048576" xr:uid="{703DDE81-D9C0-DC4D-BC27-344A03B57562}">
       <formula1>"count_validation,duplicate,Null_value_check,Uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B9 B16" xr:uid="{DC67314B-1334-534F-A26D-DF52A2A8DEF6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B9 B16 B18" xr:uid="{DC67314B-1334-534F-A26D-DF52A2A8DEF6}">
       <formula1>"count_check,duplicate_check,null_value_check,uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B8 B10:B15 B17" xr:uid="{74169A69-E248-3047-9A8E-76611A2C8774}">

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\Data_Automation_project\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F167F9-4369-4DB4-B450-3DFC46F900A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E5B6A8-93FC-4878-A034-BB779B639937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,12 +257,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -332,47 +339,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,12 +656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -765,8 +773,8 @@
       <c r="L2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>23</v>
+      <c r="M2" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>24</v>
@@ -815,8 +823,8 @@
       <c r="L3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>23</v>
+      <c r="M3" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>24</v>
@@ -865,8 +873,8 @@
       <c r="L4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>23</v>
+      <c r="M4" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>24</v>
@@ -915,8 +923,8 @@
       <c r="L5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>23</v>
+      <c r="M5" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>24</v>
@@ -966,8 +974,8 @@
       <c r="L6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>23</v>
+      <c r="M6" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="N6" s="6" t="s">
         <v>24</v>
@@ -1016,8 +1024,8 @@
       <c r="L7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="7" t="s">
-        <v>23</v>
+      <c r="M7" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>24</v>
@@ -1066,8 +1074,8 @@
       <c r="L8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="7" t="s">
-        <v>23</v>
+      <c r="M8" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="N8" s="6" t="s">
         <v>24</v>
@@ -1116,8 +1124,8 @@
       <c r="L9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>23</v>
+      <c r="M9" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>24</v>
@@ -1129,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" hidden="1">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -1176,7 +1184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" hidden="1">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1223,7 +1231,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" hidden="1">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -1270,7 +1278,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" hidden="1">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1317,7 +1325,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" hidden="1">
       <c r="A14" s="1" t="s">
         <v>45</v>
       </c>
@@ -1364,7 +1372,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" hidden="1">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
@@ -1411,7 +1419,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" hidden="1">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1458,7 +1466,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" hidden="1">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -1528,7 +1536,7 @@
         <v>29</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>62</v>
@@ -1536,14 +1544,14 @@
       <c r="J18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="12" t="s">
         <v>64</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="12" t="s">
-        <v>23</v>
+      <c r="M18" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>24</v>
@@ -1555,11 +1563,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" hidden="1">
       <c r="A19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1598,11 +1606,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" hidden="1">
       <c r="A20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1643,11 +1651,11 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" hidden="1">
       <c r="A21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1689,7 +1697,14 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <autoFilter ref="A1:P21" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="15">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B19:B1048576" xr:uid="{703DDE81-D9C0-DC4D-BC27-344A03B57562}">
       <formula1>"count_validation,duplicate,Null_value_check,Uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\Data_Automation_project\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E5B6A8-93FC-4878-A034-BB779B639937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23B9D20-9DC6-4E73-9DAB-487441B56A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -662,7 +662,7 @@
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>

--- a/Config/Master_Test_Template.xlsx
+++ b/Config/Master_Test_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A4952\PycharmProjects\Data_Automation_project\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23B9D20-9DC6-4E73-9DAB-487441B56A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798C3A3B-29A6-4162-8EE1-A6A81AC03974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -257,12 +257,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -335,50 +342,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -659,10 +672,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -705,7 +718,7 @@
       <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -755,7 +768,7 @@
       <c r="F2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="15" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
@@ -1134,7 +1147,7 @@
         <v>75</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" hidden="1">
@@ -1560,7 +1573,7 @@
         <v>75</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:16" hidden="1">
@@ -1704,7 +1717,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B19:B1048576" xr:uid="{703DDE81-D9C0-DC4D-BC27-344A03B57562}">
       <formula1>"count_validation,duplicate,Null_value_check,Uniqueness_check,records_present_only_in_source,records_present_only_target,data_compare"</formula1>
